--- a/tema1/assets/HMS_PRODUCTS.xlsx
+++ b/tema1/assets/HMS_PRODUCTS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aline\OneDrive\Desktop\SIA12 - Integrarea Info\Tema 1\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\integrare-informatie\SIA12\tema1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E83D20-D2E3-4540-AE59-875E29489972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9672"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTS" sheetId="1" r:id="rId1"/>
@@ -19,60 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>ID_CATEGORY</t>
   </si>
   <si>
-    <t>Suspendisse potenti. In eleifend quam a odio. In hac habitasse platea dictumst.
-Maecenas ut massa quis augue luctus tincidunt. Nulla mollis molestie lorem. Quisque ut erat.
-Curabitur gravida nisi at nibh. In hac habitasse platea dictumst. Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem.</t>
-  </si>
-  <si>
-    <t>Etiam vel augue. Vestibulum rutrum rutrum neque. Aenean auctor gravida sem.
-Praesent id massa id nisl venenatis lacinia. Aenean sit amet justo. Morbi ut odio.
-Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo. In blandit ultrices enim. Lorem ipsum dolor sit amet, consectetuer adipiscing elit.</t>
-  </si>
-  <si>
-    <t>In hac habitasse platea dictumst. Etiam faucibus cursus urna. Ut tellus.</t>
-  </si>
-  <si>
-    <t>Morbi porttitor lorem id ligula. Suspendisse ornare consequat lectus. In est risus, auctor sed, tristique in, tempus sit amet, sem.
-Fusce consequat. Nulla nisl. Nunc nisl.
-Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus. Duis at velit eu est congue elementum.</t>
-  </si>
-  <si>
-    <t>Duis consequat dui nec nisi volutpat eleifend. Donec ut dolor. Morbi vel lectus in quam fringilla rhoncus.
-Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis. Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci. Mauris lacinia sapien quis libero.
-Nullam sit amet turpis elementum ligula vehicula consequat. Morbi a ipsum. Integer a nibh.</t>
-  </si>
-  <si>
-    <t>Proin eu mi. Nulla ac enim. In tempor, turpis nec euismod scelerisque, quam turpis adipiscing lorem, vitae mattis nibh ligula nec sem.
-Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy. Integer non velit.
-Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi. Integer ac neque.</t>
-  </si>
-  <si>
-    <t>Fusce consequat. Nulla nisl. Nunc nisl.
-Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus. Duis at velit eu est congue elementum.
-In hac habitasse platea dictumst. Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante. Nulla justo.</t>
-  </si>
-  <si>
-    <t>Nulla ut erat id mauris vulputate elementum. Nullam varius. Nulla facilisi.</t>
-  </si>
-  <si>
-    <t>Proin interdum mauris non ligula pellentesque ultrices. Phasellus id sapien in sapien iaculis congue. Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl.
-Aenean lectus. Pellentesque eget nunc. Donec quis orci eget orci vehicula condimentum.
-Curabitur in libero ut massa volutpat convallis. Morbi odio odio, elementum eu, interdum eu, tincidunt in, leo. Maecenas pulvinar lobortis est.</t>
-  </si>
-  <si>
-    <t>Cras non velit nec nisi vulputate nonummy. Maecenas tincidunt lacus at velit. Vivamus vel nulla eget eros elementum pellentesque.
-Quisque porta volutpat erat. Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus.
-Phasellus in felis. Donec semper sapien a libero. Nam dui.</t>
-  </si>
-  <si>
-    <t>TOTAL_ITEMS</t>
-  </si>
-  <si>
     <t>ID_PRODUCT</t>
   </si>
   <si>
@@ -80,15 +32,323 @@
   </si>
   <si>
     <t>PRICE</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t>Handwoven Wall Hanging</t>
+  </si>
+  <si>
+    <t>Beautiful handwoven wall hanging for home decor.</t>
+  </si>
+  <si>
+    <t>Handcrafted Silver Necklace</t>
+  </si>
+  <si>
+    <t>Elegant silver necklace with a unique design.</t>
+  </si>
+  <si>
+    <t>Leather Keychain</t>
+  </si>
+  <si>
+    <t>Handmade leather keychain with a personalized touch.</t>
+  </si>
+  <si>
+    <t>Canvas Tote Bag</t>
+  </si>
+  <si>
+    <t>Durable and stylish canvas tote bag for everyday use.</t>
+  </si>
+  <si>
+    <t>Abstract Acrylic Painting</t>
+  </si>
+  <si>
+    <t>Vibrant and abstract acrylic painting on canvas.</t>
+  </si>
+  <si>
+    <t>Handmade Greeting Cards</t>
+  </si>
+  <si>
+    <t>Set of handmade greeting cards for various occasions.</t>
+  </si>
+  <si>
+    <t>Knitted Scarf</t>
+  </si>
+  <si>
+    <t>Cozy and warm knitted scarf for the colder seasons.</t>
+  </si>
+  <si>
+    <t>Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>Educational wooden puzzle for kids to enjoy.</t>
+  </si>
+  <si>
+    <t>Hand-poured Soy Candle</t>
+  </si>
+  <si>
+    <t>Delightful hand-poured soy candle with a relaxing fragrance.</t>
+  </si>
+  <si>
+    <t>Personalized Engraved Keychain</t>
+  </si>
+  <si>
+    <t>Engraved keychain customized with your chosen text.</t>
+  </si>
+  <si>
+    <t>Handmade Ceramic Mug</t>
+  </si>
+  <si>
+    <t>Unique and artistic ceramic mug for your favorite beverages.</t>
+  </si>
+  <si>
+    <t>Sterling Silver Earrings</t>
+  </si>
+  <si>
+    <t>Stylish sterling silver earrings with a modern design.</t>
+  </si>
+  <si>
+    <t>Leather Wallet</t>
+  </si>
+  <si>
+    <t>Handcrafted leather wallet with multiple compartments.</t>
+  </si>
+  <si>
+    <t>Recycled Paper Notebook</t>
+  </si>
+  <si>
+    <t>Eco-friendly notebook made from recycled paper.</t>
+  </si>
+  <si>
+    <t>Hand-knitted Beanie</t>
+  </si>
+  <si>
+    <t>Warm and cozy hand-knitted beanie for cold weather.</t>
+  </si>
+  <si>
+    <t>Wooden Building Blocks</t>
+  </si>
+  <si>
+    <t>Classic wooden building blocks for imaginative play.</t>
+  </si>
+  <si>
+    <t>Hand-painted Silk Scarf</t>
+  </si>
+  <si>
+    <t>Elegant hand-painted silk scarf with vibrant colors.</t>
+  </si>
+  <si>
+    <t>Scented Soy Wax Melts</t>
+  </si>
+  <si>
+    <t>Fragrant soy wax melts to create a soothing ambiance.</t>
+  </si>
+  <si>
+    <t>Handmade Leather Journal</t>
+  </si>
+  <si>
+    <t>Refined leather journal for jotting down your thoughts.</t>
+  </si>
+  <si>
+    <t>Personalized Name Bracelet</t>
+  </si>
+  <si>
+    <t>Customizable name bracelet with a personalized touch.</t>
+  </si>
+  <si>
+    <t>Handmade Ceramic Vase</t>
+  </si>
+  <si>
+    <t>Artistic ceramic vase to display your favorite flowers.</t>
+  </si>
+  <si>
+    <t>Wire-wrapped Gemstone Necklace</t>
+  </si>
+  <si>
+    <t>Unique wire-wrapped necklace with a beautiful gemstone.</t>
+  </si>
+  <si>
+    <t>Embroidered Patch</t>
+  </si>
+  <si>
+    <t>Colorful embroidered patch to adorn your clothing or bags.</t>
+  </si>
+  <si>
+    <t>Hand-painted Canvas Shoes</t>
+  </si>
+  <si>
+    <t>Custom hand-painted canvas shoes for a unique style.</t>
+  </si>
+  <si>
+    <t>Wooden Jigsaw Puzzle</t>
+  </si>
+  <si>
+    <t>Challenging wooden jigsaw puzzle for hours of fun.</t>
+  </si>
+  <si>
+    <t>Handmade Soap Set</t>
+  </si>
+  <si>
+    <t>Luxurious handmade soap set for a pampering experience.</t>
+  </si>
+  <si>
+    <t>MacramÃ© Plant Hanger</t>
+  </si>
+  <si>
+    <t>Stylish macramÃ© plant hanger to showcase your indoor plants.</t>
+  </si>
+  <si>
+    <t>Handcrafted Copper Bracelet</t>
+  </si>
+  <si>
+    <t>Intricate copper bracelet with a rustic charm.</t>
+  </si>
+  <si>
+    <t>Hand-stitched Leather Bag</t>
+  </si>
+  <si>
+    <t>Artisanal hand-stitched leather bag for everyday use.</t>
+  </si>
+  <si>
+    <t>Watercolor Painting Set</t>
+  </si>
+  <si>
+    <t>Complete watercolor painting set for aspiring artists.</t>
+  </si>
+  <si>
+    <t>Handmade Ceramic Bowls Set</t>
+  </si>
+  <si>
+    <t>Set of handcrafted ceramic bowls for serving or display.</t>
+  </si>
+  <si>
+    <t>Sterling Silver Ring</t>
+  </si>
+  <si>
+    <t>Elegant sterling silver ring with a minimalist design.</t>
+  </si>
+  <si>
+    <t>Handmade Leather Key Holder</t>
+  </si>
+  <si>
+    <t>Compact and stylish leather key holder.</t>
+  </si>
+  <si>
+    <t>Handmade Scented Candle</t>
+  </si>
+  <si>
+    <t>Artisanal scented candle with a soothing fragrance.</t>
+  </si>
+  <si>
+    <t>Hand-knitted Baby Blanket</t>
+  </si>
+  <si>
+    <t>Soft and cozy hand-knitted baby blanket for warmth.</t>
+  </si>
+  <si>
+    <t>Wooden Toy Car</t>
+  </si>
+  <si>
+    <t>Classic wooden toy car for little ones to play with.</t>
+  </si>
+  <si>
+    <t>Hand-painted Ceramic Plate</t>
+  </si>
+  <si>
+    <t>Colorful hand-painted ceramic plate for serving or display.</t>
+  </si>
+  <si>
+    <t>Wire-wrapped Crystal Pendant</t>
+  </si>
+  <si>
+    <t>Unique wire-wrapped pendant with a mesmerizing crystal.</t>
+  </si>
+  <si>
+    <t>Handmade Leather Passport Holder</t>
+  </si>
+  <si>
+    <t>Durable and stylish leather passport holder.</t>
+  </si>
+  <si>
+    <t>Embroidered Wall Art</t>
+  </si>
+  <si>
+    <t>Intricate embroidered wall art for a decorative touch.</t>
+  </si>
+  <si>
+    <t>Handmade Ceramic Teapot</t>
+  </si>
+  <si>
+    <t>Artistic ceramic teapot for a delightful tea experience.</t>
+  </si>
+  <si>
+    <t>Handcrafted Beaded Bracelet</t>
+  </si>
+  <si>
+    <t>Stylish beaded bracelet with a bohemian vibe.</t>
+  </si>
+  <si>
+    <t>Hand-stitched Leather Wallet</t>
+  </si>
+  <si>
+    <t>Exquisite hand-stitched leather wallet with a vintage look.</t>
+  </si>
+  <si>
+    <t>Hand-poured Beeswax Candle</t>
+  </si>
+  <si>
+    <t>Natural beeswax candle with a warm and comforting glow.</t>
+  </si>
+  <si>
+    <t>Hand-knitted Scarf and Hat Set</t>
+  </si>
+  <si>
+    <t>Matching scarf and hat set for cozy winter days.</t>
+  </si>
+  <si>
+    <t>Wooden Train Set</t>
+  </si>
+  <si>
+    <t>Classic wooden train set for endless playtime adventures.</t>
+  </si>
+  <si>
+    <t>Handmade Bath Bombs Set</t>
+  </si>
+  <si>
+    <t>Indulgent set of handmade bath bombs for a luxurious bath.</t>
+  </si>
+  <si>
+    <t>Handmade Ceramic Serving Platter</t>
+  </si>
+  <si>
+    <t>Elegant ceramic serving platter for special occasions.</t>
+  </si>
+  <si>
+    <t>Silver Charm Bracelet</t>
+  </si>
+  <si>
+    <t>Charming silver bracelet with a collection of unique charms.</t>
+  </si>
+  <si>
+    <t>Hand-stitched Leather Journal</t>
+  </si>
+  <si>
+    <t>Refined leather journal with hand-stitched details.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -428,210 +688,892 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="35.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>68</v>
-      </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>36</v>
-      </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>86</v>
-      </c>
       <c r="E4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
       <c r="E5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>109</v>
-      </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>111</v>
-      </c>
       <c r="E7">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>89</v>
-      </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>123</v>
-      </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>55</v>
-      </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
